--- a/lista_archivos.xlsx
+++ b/lista_archivos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="lista_archivos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="1718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="1719">
   <si>
     <t>Archivo</t>
   </si>
@@ -5214,6 +5214,9 @@
   </si>
   <si>
     <t>Acceso a Información Pública: Índice de actos y documentos calificados como secretos o reservados (*)</t>
+  </si>
+  <si>
+    <t>Menu</t>
   </si>
 </sst>
 </file>
@@ -5705,7 +5708,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5718,6 +5721,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -5764,7 +5773,23 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5775,6 +5800,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D193" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:D193">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="lista archivos"/>
+        <filter val="menu"/>
+        <filter val="sin info"/>
+        <filter val="tabla"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Archivo" dataDxfId="4"/>
+    <tableColumn id="2" name="Tipo" dataDxfId="3"/>
+    <tableColumn id="3" name="Modificado" dataDxfId="2"/>
+    <tableColumn id="4" name="Menu" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6042,8 +6089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1653" workbookViewId="0">
-      <selection activeCell="D1669" sqref="D1669"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15103,1849 +15150,2058 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D193"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D193"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>1491</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>1493</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>1502</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>1699</v>
       </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>1509</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="375" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>1716</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="300" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>1714</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>1526</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>1527</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>1537</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>1538</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>1709</v>
       </c>
+      <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
         <v>1710</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>1552</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>1553</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
         <v>1708</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>1555</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
         <v>1704</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
         <v>1705</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>1569</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>1578</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>1580</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>1584</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>1589</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1592</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>1593</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
         <v>1678</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>1596</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>1599</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>1601</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>1604</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>1605</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>1607</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>1608</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>1611</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
         <v>1683</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C132" s="1"/>
       <c r="D132" s="1" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>1616</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C135" s="1"/>
       <c r="D135" s="1" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>1622</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>1623</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>1626</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>1631</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>1632</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
         <v>1690</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
         <v>1692</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>1644</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
         <v>1694</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>1646</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>1649</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>1654</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>1660</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>1662</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>1664</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="A183" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>1699</v>
       </c>
+      <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>1672</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>1674</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="6" t="s">
         <v>1699</v>
       </c>
+      <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>1675</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>1702</v>
       </c>
+      <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>